--- a/local/public/uploads/consignments (11).xlsx
+++ b/local/public/uploads/consignments (11).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tee\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orange-HW\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3951D2B9-7CD9-4E13-8CF1-527B5D506C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECC2CA0-CDC6-488C-A23C-E753D0605831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -79,16 +79,19 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P200001</t>
-  </si>
-  <si>
-    <t>คุณชฎาพร1 พิกุล</t>
-  </si>
-  <si>
-    <t>54/325 90/16 ( หลังตลาดเทวราช )  ต.  อ.  จ.  รหัส ปณ. 10560</t>
-  </si>
-  <si>
-    <t>ppppppppppp22222</t>
+    <t>P100002</t>
+  </si>
+  <si>
+    <t>นันตพร โชดก</t>
+  </si>
+  <si>
+    <t>15/4 หมู่ 3, ต. , อ., จ.จันทบุรี</t>
+  </si>
+  <si>
+    <t>Tel. 085-6983580</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxxxxxxxxx</t>
   </si>
 </sst>
 </file>
@@ -443,24 +446,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -524,7 +527,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -534,6 +537,15 @@
       </c>
       <c r="F2" t="s">
         <v>21</v>
+      </c>
+      <c r="G2">
+        <v>22210</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/local/public/uploads/consignments (11).xlsx
+++ b/local/public/uploads/consignments (11).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orange-HW\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECC2CA0-CDC6-488C-A23C-E753D0605831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3951D2B9-7CD9-4E13-8CF1-527B5D506C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -79,19 +79,16 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100002</t>
-  </si>
-  <si>
-    <t>นันตพร โชดก</t>
-  </si>
-  <si>
-    <t>15/4 หมู่ 3, ต. , อ., จ.จันทบุรี</t>
-  </si>
-  <si>
-    <t>Tel. 085-6983580</t>
-  </si>
-  <si>
-    <t>xxxxxxxxxxxxxxxxxxxx</t>
+    <t>P200001</t>
+  </si>
+  <si>
+    <t>คุณชฎาพร1 พิกุล</t>
+  </si>
+  <si>
+    <t>54/325 90/16 ( หลังตลาดเทวราช )  ต.  อ.  จ.  รหัส ปณ. 10560</t>
+  </si>
+  <si>
+    <t>ppppppppppp22222</t>
   </si>
 </sst>
 </file>
@@ -446,24 +443,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -527,7 +524,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -537,15 +534,6 @@
       </c>
       <c r="F2" t="s">
         <v>21</v>
-      </c>
-      <c r="G2">
-        <v>22210</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/local/public/uploads/consignments (11).xlsx
+++ b/local/public/uploads/consignments (11).xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tee\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3951D2B9-7CD9-4E13-8CF1-527B5D506C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -79,30 +74,35 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P200001</t>
-  </si>
-  <si>
-    <t>คุณชฎาพร1 พิกุล</t>
-  </si>
-  <si>
-    <t>54/325 90/16 ( หลังตลาดเทวราช )  ต.  อ.  จ.  รหัส ปณ. 10560</t>
-  </si>
-  <si>
-    <t>ppppppppppp22222</t>
+    <t>O122010500012</t>
+  </si>
+  <si>
+    <t>คุณ ศิลปการสกุล  ภัทร์พงศกร</t>
+  </si>
+  <si>
+    <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF002699"/>
       <name val="Verdana"/>
@@ -113,38 +113,31 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -434,36 +427,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="31" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="34" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="34" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="128" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="33" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="29" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="36" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="39" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="31" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="32" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,10 +519,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
+    <row r="2" spans="1:19">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
       <c r="D2" t="s">
         <v>19</v>
       </c>
@@ -535,9 +532,36 @@
       <c r="F2" t="s">
         <v>21</v>
       </c>
+      <c r="G2">
+        <v>10560</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>